--- a/elecciones/lasafor/resultats.xlsx
+++ b/elecciones/lasafor/resultats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ESTADÍSTICA</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>EUPV</t>
-  </si>
-  <si>
-    <t>RESTA</t>
   </si>
   <si>
     <t>1</t>
@@ -139,16 +136,13 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>30729.0</v>
@@ -171,16 +165,13 @@
       <c r="I2" t="n">
         <v>3732.0</v>
       </c>
-      <c r="J2" t="n">
-        <v>7255.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>47413.0</v>
@@ -203,16 +194,13 @@
       <c r="I3" t="n">
         <v>9042.0</v>
       </c>
-      <c r="J3" t="n">
-        <v>20879.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>17142.0</v>
@@ -235,16 +223,13 @@
       <c r="I4" t="n">
         <v>3129.0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1859.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>30271.0</v>
@@ -266,9 +251,6 @@
       </c>
       <c r="I5" t="n">
         <v>5913.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19020.0</v>
       </c>
     </row>
   </sheetData>

--- a/elecciones/lasafor/resultats.xlsx
+++ b/elecciones/lasafor/resultats.xlsx
@@ -145,25 +145,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>30729.0</v>
+        <v>17142.0</v>
       </c>
       <c r="D2" t="n">
-        <v>26985.0</v>
+        <v>18226.0</v>
       </c>
       <c r="E2" t="n">
-        <v>12094.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1468.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1363.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1877.0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>3732.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
